--- a/results/metric_df/CAA_metrics.xlsx
+++ b/results/metric_df/CAA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,166 +498,190 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2490489972455107</v>
+        <v>1.408274057544415</v>
       </c>
       <c r="C2" t="n">
-        <v>2.488746614678542</v>
+        <v>1.710059633012886</v>
       </c>
       <c r="D2" t="n">
-        <v>13.45695</v>
+        <v>11.9704174310902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4555</v>
+        <v>2.112906746388721</v>
       </c>
       <c r="F2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
-        </is>
+        <v>29.37841819896275</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4295714285714286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.812857142857142</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2101828352711408</v>
+        <v>-0.2264449740208395</v>
       </c>
       <c r="C3" t="n">
-        <v>2.315462523559917</v>
+        <v>1.713879057223676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7807833333333334</v>
+        <v>11.99715340056573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.419</v>
+        <v>2.160388455580649</v>
       </c>
       <c r="F3" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>21.35157801494435</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4392857142857143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.109999999999999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2374151977891761</v>
+        <v>3.713642859031026</v>
       </c>
       <c r="C4" t="n">
-        <v>2.095696026530681</v>
+        <v>1.901990340784573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35245</v>
+        <v>13.31393238549201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4615</v>
+        <v>2.596661214730085</v>
       </c>
       <c r="F4" t="n">
-        <v>8.545</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>24.47100952380953</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4384285714285714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.41</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.408274057544415</v>
+        <v>2.278704213869758</v>
       </c>
       <c r="C5" t="n">
-        <v>1.839862977009192</v>
+        <v>1.925411773759933</v>
       </c>
       <c r="D5" t="n">
-        <v>38.81119986998699</v>
+        <v>13.47788241631953</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4305</v>
+        <v>2.601224001815298</v>
       </c>
       <c r="F5" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>16.11558571428571</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4435714285714286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.942857142857143</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -656,40 +690,46 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2264449740208395</v>
+        <v>3.15454187429034</v>
       </c>
       <c r="C6" t="n">
-        <v>1.828098178284811</v>
+        <v>1.732867508769073</v>
       </c>
       <c r="D6" t="n">
-        <v>24.84926826015935</v>
+        <v>12.13007256138351</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45175</v>
+        <v>2.568174557198956</v>
       </c>
       <c r="F6" t="n">
-        <v>3.8825</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>33.57349387755102</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4305714285714286</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.057142857142857</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -698,82 +738,94 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2534165340911102</v>
+        <v>0.6278664913714481</v>
       </c>
       <c r="C7" t="n">
-        <v>2.597512620302648</v>
+        <v>1.682105456660559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9847586669904439</v>
+        <v>11.77473819662391</v>
       </c>
       <c r="E7" t="n">
-        <v>0.404</v>
+        <v>2.425021331076254</v>
       </c>
       <c r="F7" t="n">
-        <v>8.209999999999999</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>27.30604857142857</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4505714285714286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.141428571428571</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.713642859031026</v>
+        <v>0.3204043637312194</v>
       </c>
       <c r="C8" t="n">
-        <v>2.224273281242684</v>
+        <v>1.655425860015261</v>
       </c>
       <c r="D8" t="n">
-        <v>31.606575</v>
+        <v>11.58798102010683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.457</v>
+        <v>2.509032411121987</v>
       </c>
       <c r="F8" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>22.19703267768461</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4234285714285714</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.258571428571429</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -782,40 +834,46 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.278704213869758</v>
+        <v>-0.2182894011791318</v>
       </c>
       <c r="C9" t="n">
-        <v>2.19766197407428</v>
+        <v>1.514437928873283</v>
       </c>
       <c r="D9" t="n">
-        <v>18.7132125</v>
+        <v>10.60106550211298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.441</v>
+        <v>2.005643627344604</v>
       </c>
       <c r="F9" t="n">
-        <v>7.955</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>29.30781649593531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.37</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -824,40 +882,46 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.580970049417443</v>
+        <v>2.381707161099399</v>
       </c>
       <c r="C10" t="n">
-        <v>2.476045733589508</v>
+        <v>1.613800509001093</v>
       </c>
       <c r="D10" t="n">
-        <v>16.46180618061806</v>
+        <v>11.29660356300765</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4375</v>
+        <v>2.116459435469261</v>
       </c>
       <c r="F10" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>32.69422285714285</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4475714285714286</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.605714285714285</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -866,40 +930,46 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.868223277292317</v>
+        <v>2.853321103215253</v>
       </c>
       <c r="C11" t="n">
-        <v>2.047297700897916</v>
+        <v>1.582149391147366</v>
       </c>
       <c r="D11" t="n">
-        <v>27.53785714285714</v>
+        <v>11.07504573803156</v>
       </c>
       <c r="E11" t="n">
-        <v>0.479</v>
+        <v>2.100542809820641</v>
       </c>
       <c r="F11" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>28.10082142857143</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4288571428571428</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.252857142857144</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -908,210 +978,48 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.15454187429034</v>
+        <v>3.375119329682989</v>
       </c>
       <c r="C12" t="n">
-        <v>2.244920453422627</v>
+        <v>1.597602949311476</v>
       </c>
       <c r="D12" t="n">
-        <v>44.48635178571428</v>
+        <v>11.18322064518033</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42025</v>
+        <v>1.994761172264495</v>
       </c>
       <c r="F12" t="n">
-        <v>8.52375</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
-        </is>
+        <v>27.62711785714286</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4592857142857142</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.317142857142857</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2427915249343927</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.669142786290044</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.817538246175381</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.1958793871444232</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.63639127321597</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.35031503150315</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.1784709824467157</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.626073631843238</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.137133333333335</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.4355</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.370000000000001</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.2542569248756844</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.3684476110844</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.6741</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>

--- a/results/metric_df/CAA_metrics.xlsx
+++ b/results/metric_df/CAA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>1.408274057544415</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.710059633012886</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>11.9704174310902</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.112906746388721</v>
-      </c>
       <c r="F2" t="n">
-        <v>29.37841819896275</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4295714285714286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.812857142857142</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>21.47855900209074</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>-0.2264449740208395</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.713879057223676</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>11.99715340056573</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.160388455580649</v>
-      </c>
       <c r="F3" t="n">
-        <v>21.35157801494435</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4392857142857143</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>14.40935708160554</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>3.713642859031026</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.901990340784573</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>13.31393238549201</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.596661214730085</v>
-      </c>
       <c r="F4" t="n">
-        <v>24.47100952380953</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4384285714285714</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>21.4689035334009</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>2.278704213869758</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.925411773759933</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>13.47788241631953</v>
       </c>
-      <c r="E5" t="n">
-        <v>2.601224001815298</v>
-      </c>
       <c r="F5" t="n">
-        <v>16.11558571428571</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4435714285714286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.942857142857143</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>12.85320362253073</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -696,331 +595,256 @@
       <c r="B6" t="n">
         <v>3.15454187429034</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.732867508769073</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>12.13007256138351</v>
       </c>
-      <c r="E6" t="n">
-        <v>2.568174557198956</v>
-      </c>
       <c r="F6" t="n">
-        <v>33.57349387755102</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4305714285714286</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.057142857142857</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>21.03906725790504</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6278664913714481</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.682105456660559</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.77473819662391</v>
+        <v>-0.0492495971828206</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>2.425021331076254</v>
+        <v>11.9728514547312</v>
       </c>
       <c r="F7" t="n">
-        <v>27.30604857142857</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4505714285714286</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.141428571428571</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>16.21716713385297</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)[GlcNAc(b1-4)][Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3204043637312194</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.655425860015261</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.58798102010683</v>
+        <v>-0.2499051157137675</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2.509032411121987</v>
+        <v>11.99279206014566</v>
       </c>
       <c r="F8" t="n">
-        <v>22.19703267768461</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4234285714285714</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.258571428571429</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>11.09503731398331</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2182894011791318</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.514437928873283</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.60106550211298</v>
+        <v>0.6278664913714481</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>2.005643627344604</v>
+        <v>11.77473819662391</v>
       </c>
       <c r="F9" t="n">
-        <v>29.30781649593531</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>19.96344974679717</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.381707161099399</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.613800509001093</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.29660356300765</v>
+        <v>0.3204043637312194</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>2.116459435469261</v>
+        <v>11.58798102010683</v>
       </c>
       <c r="F10" t="n">
-        <v>32.69422285714285</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4475714285714286</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.605714285714285</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>14.97992184844414</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.853321103215253</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.582149391147366</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.07504573803156</v>
+        <v>-0.2182894011791318</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>2.100542809820641</v>
+        <v>10.60106550211298</v>
       </c>
       <c r="F11" t="n">
-        <v>28.10082142857143</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4288571428571428</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.252857142857144</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>21.42694210311908</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.381707161099399</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>11.29660356300765</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.90274350065041</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.853321103215253</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>11.07504573803156</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.54450811385404</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>3.375119329682989</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.597602949311476</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>11.18322064518033</v>
       </c>
-      <c r="E12" t="n">
-        <v>1.994761172264495</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.62711785714286</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4592857142857142</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9.317142857142857</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="F14" t="n">
+        <v>18.6444770527285</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
